--- a/output/aggregate_tables/Analysis Group Statistics/Area 41_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 41_summary.xlsx
@@ -1428,17 +1428,39 @@
       <c r="M4" s="4" t="n">
         <v>42.64705882352941</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>52.94117647058824</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>58.82352941176471</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>41.17647058823529</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1557,34 +1579,34 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.03219510714285714</v>
+        <v>0.03874237895535715</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.087291987023809</v>
+        <v>1.108156536555059</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.4975946258333332</v>
+        <v>0.5300938789895833</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.119487094166667</v>
+        <v>1.146898915510417</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.4975946258333332</v>
+        <v>0.5300938789895833</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.990938784643311</v>
+        <v>2.31022930345436</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>67.23791219554505</v>
+        <v>66.07998198856063</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>69.22885098018835</v>
+        <v>68.390211292015</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
     </row>
   </sheetData>
@@ -1702,34 +1724,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.01587771</v>
+        <v>0.0224249818125</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.067618514166667</v>
+        <v>1.088317363697917</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.4123804758333333</v>
+        <v>0.4364921771770833</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.083496224166667</v>
+        <v>1.110742345510417</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.4123804758333333</v>
+        <v>0.4364921771770833</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.061431734313396</v>
+        <v>1.449358935809452</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>71.37075630409022</v>
+        <v>70.33952175572855</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.56781196159638</v>
+        <v>28.21111930846201</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>72.43218803840362</v>
+        <v>71.78888069153801</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>27.56781196159638</v>
+        <v>28.21111930846201</v>
       </c>
     </row>
     <row r="5">
@@ -1740,31 +1762,31 @@
         <v>0.01631739714285715</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>0.01967347285714286</v>
+        <v>0.01983917285714286</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.08521414999999999</v>
+        <v>0.09360170181250001</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.03599087</v>
+        <v>0.03615657000000001</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>0.08521414999999999</v>
+        <v>0.09360170181250001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.46264135170074</v>
+        <v>12.57522693153289</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.23156603343893</v>
+        <v>15.28933190926768</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>70.30579261486034</v>
+        <v>72.13544115919943</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>29.69420738513966</v>
+        <v>27.86455884080057</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>70.30579261486034</v>
+        <v>72.13544115919943</v>
       </c>
     </row>
     <row r="6">
@@ -1774,34 +1796,34 @@
         </is>
       </c>
       <c r="B6" s="11" t="n">
-        <v>0.03219510714285714</v>
+        <v>0.03874237895535715</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.087291987023809</v>
+        <v>1.108156536555059</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.4975946258333332</v>
+        <v>0.5300938789895833</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.119487094166667</v>
+        <v>1.146898915510417</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.4975946258333332</v>
+        <v>0.5300938789895833</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.990938784643311</v>
+        <v>2.31022930345436</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>67.23791219554505</v>
+        <v>66.07998198856063</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>69.22885098018835</v>
+        <v>68.390211292015</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
     </row>
   </sheetData>
@@ -1921,19 +1943,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.990938784643311</v>
+        <v>2.31022930345436</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>67.23791219554505</v>
+        <v>66.07998198856063</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>69.22885098018835</v>
+        <v>68.390211292015</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0.6639035696703423</v>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 41_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 41_summary.xlsx
@@ -627,37 +627,37 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>29</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>29</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>14.70588235294118</v>
+        <v>14.49275362318841</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>57.35294117647059</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
     </row>
   </sheetData>
@@ -790,37 +790,37 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>8</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.72727272727273</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>40.90909090909091</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>36.36363636363637</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>63.63636363636363</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>36.36363636363637</v>
+        <v>34.78260869565217</v>
       </c>
     </row>
     <row r="4">
@@ -833,37 +833,37 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.70588235294118</v>
+        <v>14.49275362318841</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>57.35294117647059</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
     </row>
   </sheetData>
@@ -937,13 +937,13 @@
         <v>34</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -956,13 +956,13 @@
         <v>80</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1104,43 +1104,43 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>8</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>22.72727272727273</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>40.90909090909091</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>36.36363636363637</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>63.63636363636363</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>36.36363636363637</v>
+        <v>34.78260869565217</v>
       </c>
     </row>
     <row r="4">
@@ -1150,43 +1150,43 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>14.70588235294118</v>
+        <v>14.49275362318841</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>57.35294117647059</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
     </row>
   </sheetData>
@@ -1396,37 +1396,37 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.70588235294118</v>
+        <v>14.49275362318841</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>57.35294117647059</v>
+        <v>57.97101449275362</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>42.64705882352941</v>
+        <v>42.02898550724638</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>17</v>
@@ -1579,34 +1579,34 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.03874237895535715</v>
+        <v>0.03873910449941452</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.108156536555059</v>
+        <v>1.108698690415203</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.5300938789895833</v>
+        <v>0.5300791439378415</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.146898915510417</v>
+        <v>1.147437794914618</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.5300938789895833</v>
+        <v>0.5300791439378415</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.31022930345436</v>
+        <v>2.309312269950301</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.07998198856063</v>
+        <v>66.09165396408049</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>68.390211292015</v>
+        <v>68.40096623403079</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
     </row>
   </sheetData>
@@ -1724,34 +1724,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.0224249818125</v>
+        <v>0.02242170735655738</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.088317363697917</v>
+        <v>1.08830917755806</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.4364921771770833</v>
+        <v>0.4364807165812841</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.110742345510417</v>
+        <v>1.110730884914618</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.4364921771770833</v>
+        <v>0.4364807165812841</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.449358935809452</v>
+        <v>1.449168771412988</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>70.33952175572855</v>
+        <v>70.3400347118547</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.21111930846201</v>
+        <v>28.21079651673232</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>71.78888069153801</v>
+        <v>71.78920348326768</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>28.21111930846201</v>
+        <v>28.21079651673232</v>
       </c>
     </row>
     <row r="5">
@@ -1762,31 +1762,31 @@
         <v>0.01631739714285715</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>0.01983917285714286</v>
+        <v>0.02038951285714286</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.09360170181250001</v>
+        <v>0.09359842735655738</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.03615657000000001</v>
+        <v>0.03670691</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>0.09360170181250001</v>
+        <v>0.09359842735655738</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.57522693153289</v>
+        <v>12.52243190791755</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.28933190926768</v>
+        <v>15.64748863766845</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>72.13544115919943</v>
+        <v>71.830079454414</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>27.86455884080057</v>
+        <v>28.169920545586</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>72.13544115919943</v>
+        <v>71.830079454414</v>
       </c>
     </row>
     <row r="6">
@@ -1796,34 +1796,34 @@
         </is>
       </c>
       <c r="B6" s="11" t="n">
-        <v>0.03874237895535715</v>
+        <v>0.03873910449941452</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.108156536555059</v>
+        <v>1.108698690415203</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5300938789895833</v>
+        <v>0.5300791439378415</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.146898915510417</v>
+        <v>1.147437794914618</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.5300938789895833</v>
+        <v>0.5300791439378415</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.31022930345436</v>
+        <v>2.309312269950301</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>66.07998198856063</v>
+        <v>66.09165396408049</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>68.390211292015</v>
+        <v>68.40096623403079</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
     </row>
   </sheetData>
@@ -1943,19 +1943,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.31022930345436</v>
+        <v>2.309312269950301</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>66.07998198856063</v>
+        <v>66.09165396408049</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>68.390211292015</v>
+        <v>68.40096623403079</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0.6639035696703423</v>
